--- a/biology/Zoologie/Aeshna_subarctica/Aeshna_subarctica.xlsx
+++ b/biology/Zoologie/Aeshna_subarctica/Aeshna_subarctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeshna subarctica (nom vernaculaire : æschne subarctique), est une espèce de libellules anisoptères de la famille des Aeshnidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son corps atteint 70 à 76 mm de long.
 Très proche de l'æschne des joncs (Aeshna juncea), elle s'en distingue par une coloration plus sombre et plus terne.
@@ -543,7 +557,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette libellule d'Eurasie et d'Amérique du Nord est localisée en France dans le Jura et les Vosges.
 En Belgique wallonne elle est présente sur le Plateau des Hautes-Fagnes.
